--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_introml_rpi/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/spring2021_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CA516-22D5-7E44-90E9-BFC6F924035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C72BC1-AA6C-B340-A168-5B41ABEE34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="329">
   <si>
     <t>Day</t>
   </si>
@@ -514,12 +514,6 @@
     <t>https://eurl.io/#KijTiY1Sa</t>
   </si>
   <si>
-    <t>assignments/assignment1/01starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages. </t>
-  </si>
-  <si>
     <t>Chapter 1: The Machine Learning Landscape</t>
   </si>
   <si>
@@ -688,18 +682,12 @@
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
-  </si>
-  <si>
     <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
   </si>
   <si>
     <t>This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling. Continued introduction to coding includes Numpy and Pandas</t>
   </si>
   <si>
-    <t>assignments/assignment2/hm</t>
-  </si>
-  <si>
     <t>Video Recording of Class Sec 01</t>
   </si>
   <si>
@@ -820,12 +808,6 @@
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=6deccb8602db4a1984a7a0e727dffbbc</t>
   </si>
   <si>
-    <t xml:space="preserve">This has us create a few different functions and our first simple model. </t>
-  </si>
-  <si>
-    <t>assignments/assignment3/hm</t>
-  </si>
-  <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=84fd624c95554f8489dfc64d260245df</t>
   </si>
   <si>
@@ -835,12 +817,6 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e210b8b46f824822b383e452c26ff3af</t>
   </si>
   <si>
-    <t>Some exercises with visualization and web scraping.</t>
-  </si>
-  <si>
-    <t>assignments/assignment4/hm</t>
-  </si>
-  <si>
     <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/6bd4d10ef7a443838e020218e96144f5</t>
   </si>
   <si>
@@ -856,12 +832,6 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/4d00a7cff4c5473f86cd84fd29bf10bd</t>
   </si>
   <si>
-    <t>Manipulating data</t>
-  </si>
-  <si>
-    <t>assignments/assignment5/hm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regression models similarly a a major type of machine learning application.  In this </t>
   </si>
   <si>
@@ -928,24 +898,6 @@
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=98b3f8266fca4b738f5a589c9f65c14c</t>
   </si>
   <si>
-    <t>Unsupervised</t>
-  </si>
-  <si>
-    <t>assignments/assignment6/hm</t>
-  </si>
-  <si>
-    <t>Project First 3 sections</t>
-  </si>
-  <si>
-    <t>See box for project description.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midterm-Correction:  Correct your midterm so that it passes all of the tests. </t>
-  </si>
-  <si>
-    <t>assignments/midterm/hm</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://rensselaer.webex.com/rensselaer/ldr.php?RCID=37ea34ea2bb047b3a776d864570768f6 </t>
   </si>
   <si>
@@ -967,15 +919,6 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e7a9b73ba41042f59399c1cdd27d3362</t>
   </si>
   <si>
-    <t>Final Project</t>
-  </si>
-  <si>
-    <t>See box fo description.</t>
-  </si>
-  <si>
-    <t>Deep Learning Excel Lab Assignment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please aim for a 5-7 min presentation covering key insights from EDA and modeling, with a focus on modeling. </t>
   </si>
   <si>
@@ -986,12 +929,6 @@
   </si>
   <si>
     <t>Tue</t>
-  </si>
-  <si>
-    <t>See LMS for description.</t>
-  </si>
-  <si>
-    <t>Final Project Presentation</t>
   </si>
   <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/243882573d9e42bb8429c2794430c0f2</t>
@@ -2786,7 +2723,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -2830,7 +2767,7 @@
         <v>142</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -2855,7 +2792,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -2880,7 +2817,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -2905,7 +2842,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -2930,7 +2867,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -2955,7 +2892,7 @@
         <v>84</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -2985,10 +2922,10 @@
         <v>Mon</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -3018,10 +2955,10 @@
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -3054,7 +2991,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -3087,7 +3024,7 @@
         <v>101</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -3147,7 +3084,7 @@
         <v>102</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -3177,10 +3114,10 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -3213,7 +3150,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -3246,7 +3183,7 @@
         <v>112</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -3279,7 +3216,7 @@
         <v>85</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -3312,7 +3249,7 @@
         <v>85</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -3342,10 +3279,10 @@
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -3375,10 +3312,10 @@
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -3408,10 +3345,10 @@
         <v>Thu</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -3444,7 +3381,7 @@
         <v>86</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -3474,10 +3411,10 @@
         <v>Thu</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -3506,10 +3443,10 @@
         <v>Mon</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -3539,7 +3476,7 @@
         <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -3571,7 +3508,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -3601,10 +3538,10 @@
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -3637,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
@@ -3670,7 +3607,7 @@
         <v>115</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -3695,13 +3632,13 @@
         <v>44180</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -8151,7 +8088,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -8188,10 +8125,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -8202,10 +8139,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -8216,10 +8153,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -8230,10 +8167,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -8244,10 +8181,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
@@ -8258,10 +8195,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -8272,10 +8209,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -8286,10 +8223,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
@@ -8300,10 +8237,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -8314,10 +8251,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -8328,10 +8265,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8342,10 +8279,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8356,10 +8293,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -8370,10 +8307,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
@@ -8384,10 +8321,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -8398,10 +8335,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -8412,10 +8349,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -8426,10 +8363,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -8440,10 +8377,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
@@ -8454,10 +8391,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
@@ -8468,10 +8405,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
@@ -8482,10 +8419,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8525,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D87" sqref="D87:D88"/>
     </sheetView>
@@ -8556,10 +8493,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -8570,10 +8507,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
@@ -8584,10 +8521,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8598,10 +8535,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
@@ -8612,10 +8549,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
@@ -8629,7 +8566,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8643,7 +8580,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -8654,10 +8591,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
@@ -8668,10 +8605,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -8682,10 +8619,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
@@ -8696,10 +8633,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>3</v>
@@ -8710,10 +8647,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8724,10 +8661,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8738,10 +8675,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8752,10 +8689,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8766,10 +8703,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>3</v>
@@ -8780,10 +8717,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>3</v>
@@ -8794,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>152</v>
@@ -8808,10 +8745,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>96</v>
@@ -8822,10 +8759,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>96</v>
@@ -8836,10 +8773,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>96</v>
@@ -8850,10 +8787,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>96</v>
@@ -8864,10 +8801,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>96</v>
@@ -8878,10 +8815,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>96</v>
@@ -8892,10 +8829,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8906,10 +8843,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>3</v>
@@ -8920,10 +8857,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -8934,10 +8871,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -8948,10 +8885,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>96</v>
@@ -8962,10 +8899,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>96</v>
@@ -8976,10 +8913,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>96</v>
@@ -8990,10 +8927,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -9004,10 +8941,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>3</v>
@@ -9018,10 +8955,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>96</v>
@@ -9032,10 +8969,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>96</v>
@@ -9046,10 +8983,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>96</v>
@@ -9060,10 +8997,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -9074,10 +9011,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>3</v>
@@ -9088,10 +9025,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>96</v>
@@ -9102,10 +9039,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>96</v>
@@ -9116,10 +9053,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>96</v>
@@ -9130,10 +9067,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>96</v>
@@ -9144,10 +9081,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>96</v>
@@ -9158,10 +9095,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>96</v>
@@ -9172,10 +9109,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>3</v>
@@ -9186,10 +9123,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>3</v>
@@ -9200,10 +9137,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>3</v>
@@ -9214,10 +9151,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>3</v>
@@ -9228,10 +9165,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>3</v>
@@ -9242,10 +9179,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>3</v>
@@ -9256,10 +9193,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>3</v>
@@ -9270,10 +9207,10 @@
         <v>11</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>3</v>
@@ -9284,10 +9221,10 @@
         <v>12</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>3</v>
@@ -9298,10 +9235,10 @@
         <v>12</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>3</v>
@@ -9312,10 +9249,10 @@
         <v>13</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
@@ -9326,10 +9263,10 @@
         <v>13</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>3</v>
@@ -9340,10 +9277,10 @@
         <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>3</v>
@@ -9354,10 +9291,10 @@
         <v>15</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>3</v>
@@ -9368,10 +9305,10 @@
         <v>15</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>3</v>
@@ -9382,10 +9319,10 @@
         <v>16</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>3</v>
@@ -9396,10 +9333,10 @@
         <v>16</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>3</v>
@@ -9410,10 +9347,10 @@
         <v>17</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>3</v>
@@ -9424,10 +9361,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>3</v>
@@ -9438,10 +9375,10 @@
         <v>18</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>3</v>
@@ -9452,10 +9389,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>3</v>
@@ -9466,10 +9403,10 @@
         <v>19</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>3</v>
@@ -9480,10 +9417,10 @@
         <v>19</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>3</v>
@@ -9494,10 +9431,10 @@
         <v>20</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>3</v>
@@ -9508,10 +9445,10 @@
         <v>20</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>3</v>
@@ -9522,10 +9459,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>3</v>
@@ -9536,10 +9473,10 @@
         <v>21</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>3</v>
@@ -9550,10 +9487,10 @@
         <v>22</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>3</v>
@@ -9564,10 +9501,10 @@
         <v>22</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>3</v>
@@ -9578,10 +9515,10 @@
         <v>23</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>3</v>
@@ -9592,10 +9529,10 @@
         <v>23</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>3</v>
@@ -9606,10 +9543,10 @@
         <v>24</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>3</v>
@@ -9620,10 +9557,10 @@
         <v>24</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>3</v>
@@ -9634,10 +9571,10 @@
         <v>25</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
@@ -9648,10 +9585,10 @@
         <v>25</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>3</v>
@@ -9662,10 +9599,10 @@
         <v>26</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>3</v>
@@ -9676,10 +9613,10 @@
         <v>26</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>3</v>
@@ -9690,10 +9627,10 @@
         <v>26</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -9704,10 +9641,10 @@
         <v>26</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>3</v>
@@ -9718,10 +9655,10 @@
         <v>26</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>3</v>
@@ -9732,10 +9669,10 @@
         <v>26</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>3</v>
@@ -9746,10 +9683,10 @@
         <v>27</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>3</v>
@@ -9760,10 +9697,10 @@
         <v>27</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>3</v>
@@ -9828,8 +9765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E902"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9860,182 +9797,61 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="27">
-        <v>44084</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51">
-      <c r="A3" s="19">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="26">
-        <f>D2+7</f>
-        <v>44091</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34">
-      <c r="A4" s="19">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="26">
-        <v>44098</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
-      <c r="A5" s="19">
-        <v>7</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="26">
-        <f>D4+7</f>
-        <v>44105</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
-      <c r="A6" s="19">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="26">
-        <f>D5+11</f>
-        <v>44116</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
-      <c r="A7" s="19">
-        <v>16</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="26">
-        <v>44140</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
-      <c r="A8" s="19">
-        <v>16</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="26">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34">
-      <c r="A9" s="19">
-        <v>17</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="26">
-        <v>44147</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="19">
-        <v>18</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="26">
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
-      <c r="A11" s="19">
-        <v>19</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="26">
-        <v>44171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17">
-      <c r="A12" s="19">
-        <v>19</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="27">
-        <v>44178</v>
-      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="34"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="22"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="22"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="39"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="34"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/spring2021_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C72BC1-AA6C-B340-A168-5B41ABEE34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED704F-0CBC-3D42-9F21-1F773DA13D54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="330">
   <si>
     <t>Day</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/500fc42a5d0a4ac2b8335ab0ae6074c4/playback</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,16 +1243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1258,9 +1255,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2722,7 +2716,7 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>214</v>
       </c>
       <c r="G3" s="11">
@@ -2766,7 +2760,7 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="5">
@@ -2891,7 +2885,7 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="33" t="s">
         <v>230</v>
       </c>
       <c r="G10" s="5">
@@ -2924,7 +2918,7 @@
       <c r="E11" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>230</v>
       </c>
       <c r="G11" s="5">
@@ -2957,7 +2951,7 @@
       <c r="E12" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>230</v>
       </c>
       <c r="G12" s="5">
@@ -2990,7 +2984,7 @@
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="33" t="s">
         <v>264</v>
       </c>
       <c r="G13" s="5">
@@ -3053,7 +3047,7 @@
       <c r="E15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="5">
         <v>1</v>
       </c>
@@ -3083,7 +3077,7 @@
       <c r="E16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>266</v>
       </c>
       <c r="G16" s="5">
@@ -3149,7 +3143,7 @@
       <c r="E18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="33" t="s">
         <v>269</v>
       </c>
       <c r="G18" s="5">
@@ -3182,7 +3176,7 @@
       <c r="E19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
         <v>269</v>
       </c>
       <c r="G19" s="5">
@@ -3281,7 +3275,7 @@
       <c r="E22" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G22" s="5">
@@ -3314,7 +3308,7 @@
       <c r="E23" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G23" s="5">
@@ -3347,7 +3341,7 @@
       <c r="E24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>304</v>
       </c>
       <c r="G24" s="5">
@@ -3380,7 +3374,7 @@
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>271</v>
       </c>
       <c r="G25" s="5">
@@ -8135,7 +8129,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -8149,7 +8143,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -8163,7 +8157,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8177,7 +8171,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -8191,7 +8185,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -8205,7 +8199,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -8219,7 +8213,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -8233,7 +8227,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -8247,7 +8241,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -8261,7 +8255,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -8275,7 +8269,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -8289,7 +8283,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8303,7 +8297,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -8317,10 +8311,10 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>10</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>192</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -8331,10 +8325,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>12</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>194</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -8345,10 +8339,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>14</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -8359,10 +8353,10 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>196</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -8373,10 +8367,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>17</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>197</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -8387,10 +8381,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>22</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>198</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -8401,10 +8395,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>21</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>199</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -8415,10 +8409,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>22</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>200</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -8786,7 +8780,7 @@
       <c r="A23" s="14">
         <v>4</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>207</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -8800,7 +8794,7 @@
       <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>208</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -8887,7 +8881,7 @@
       <c r="B30" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>231</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -8999,7 +8993,7 @@
       <c r="B38" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="35" t="s">
         <v>259</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -9013,7 +9007,7 @@
       <c r="B39" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="36" t="s">
         <v>258</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -9139,7 +9133,7 @@
       <c r="B48" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="35" t="s">
         <v>279</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -9167,7 +9161,7 @@
       <c r="B50" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="35" t="s">
         <v>280</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -9195,7 +9189,7 @@
       <c r="B52" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="35" t="s">
         <v>278</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -9209,7 +9203,7 @@
       <c r="B53" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="35" t="s">
         <v>268</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -9405,7 +9399,7 @@
       <c r="B67" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="37" t="s">
         <v>297</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -9763,10 +9757,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
-  <dimension ref="A1:E902"/>
+  <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A2:E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9796,62 +9790,44 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="5"/>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="34"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="34"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="22"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="22"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="22"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="39"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="22"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="34"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="23"/>
@@ -12456,72 +12432,6 @@
     </row>
     <row r="880" spans="3:3">
       <c r="C880" s="23"/>
-    </row>
-    <row r="881" spans="3:3">
-      <c r="C881" s="23"/>
-    </row>
-    <row r="882" spans="3:3">
-      <c r="C882" s="23"/>
-    </row>
-    <row r="883" spans="3:3">
-      <c r="C883" s="23"/>
-    </row>
-    <row r="884" spans="3:3">
-      <c r="C884" s="23"/>
-    </row>
-    <row r="885" spans="3:3">
-      <c r="C885" s="23"/>
-    </row>
-    <row r="886" spans="3:3">
-      <c r="C886" s="23"/>
-    </row>
-    <row r="887" spans="3:3">
-      <c r="C887" s="23"/>
-    </row>
-    <row r="888" spans="3:3">
-      <c r="C888" s="23"/>
-    </row>
-    <row r="889" spans="3:3">
-      <c r="C889" s="23"/>
-    </row>
-    <row r="890" spans="3:3">
-      <c r="C890" s="23"/>
-    </row>
-    <row r="891" spans="3:3">
-      <c r="C891" s="23"/>
-    </row>
-    <row r="892" spans="3:3">
-      <c r="C892" s="23"/>
-    </row>
-    <row r="893" spans="3:3">
-      <c r="C893" s="23"/>
-    </row>
-    <row r="894" spans="3:3">
-      <c r="C894" s="23"/>
-    </row>
-    <row r="895" spans="3:3">
-      <c r="C895" s="23"/>
-    </row>
-    <row r="896" spans="3:3">
-      <c r="C896" s="23"/>
-    </row>
-    <row r="897" spans="3:3">
-      <c r="C897" s="23"/>
-    </row>
-    <row r="898" spans="3:3">
-      <c r="C898" s="23"/>
-    </row>
-    <row r="899" spans="3:3">
-      <c r="C899" s="23"/>
-    </row>
-    <row r="900" spans="3:3">
-      <c r="C900" s="23"/>
-    </row>
-    <row r="901" spans="3:3">
-      <c r="C901" s="23"/>
-    </row>
-    <row r="902" spans="3:3">
-      <c r="C902" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12575,10 +12485,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="41">
+      <c r="A5" s="38">
         <v>43709</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -12621,10 +12531,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>43739</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -12675,10 +12585,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="41">
+      <c r="A18" s="38">
         <v>43770</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -12745,10 +12655,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="41">
+      <c r="A27" s="38">
         <v>43800</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -12831,10 +12741,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="41">
+      <c r="A38" s="38">
         <v>43831</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -12885,10 +12795,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="41">
+      <c r="A45" s="38">
         <v>43862</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12915,10 +12825,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="38">
         <v>43891</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="39"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12993,10 +12903,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="41">
+      <c r="A59" s="38">
         <v>43922</v>
       </c>
-      <c r="B59" s="42"/>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -13039,10 +12949,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="41">
+      <c r="A65" s="38">
         <v>43952</v>
       </c>
-      <c r="B65" s="42"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/spring2021_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED704F-0CBC-3D42-9F21-1F773DA13D54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CD286-1BE2-8D49-8725-313A7502645F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="330">
   <si>
     <t>Day</t>
   </si>
@@ -9760,7 +9760,7 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9798,6 +9798,12 @@
         <v>329</v>
       </c>
       <c r="C2" s="23"/>
+      <c r="D2" s="26">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" s="23"/>
